--- a/examples/ex216.transient_solutions_superposition_update.xlsx
+++ b/examples/ex216.transient_solutions_superposition_update.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_vba\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E9B126-7C2B-49CE-A17A-90510296BE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="600" windowWidth="27420" windowHeight="17400" xr2:uid="{29702620-5456-439A-8B1B-50A6C6D0FE40}"/>
+    <workbookView xWindow="1380" yWindow="600" windowWidth="27420" windowHeight="17400"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +33,7 @@
     <definedName name="rw">Лист1!$C$14</definedName>
     <definedName name="skin">Лист1!$C$16</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,28 +49,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -143,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,6 +193,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -404,7 +382,7 @@
                   <c:v>238.24181805398504</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>239.73764521544348</c:v>
+                  <c:v>239.73764521571138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -561,6 +539,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -568,7 +547,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1205,7 +1183,6 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Info"/>
-      <sheetName val="UniflocVBA_7"/>
     </sheetNames>
     <definedNames>
       <definedName name="encode_json"/>
@@ -1217,7 +1194,6 @@
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1519,12 +1495,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEFE487-D3C8-4369-B650-7D9FBA9BB79D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
   <dimension ref="B3:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1590,22 +1566,22 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" cm="1">
+      <c r="F7">
         <f t="array" ref="F7">[1]!transient_td_from_t(E7,rw,k,phi,mu,ct)</f>
         <v>53999.999999999993</v>
       </c>
-      <c r="G7" cm="1">
+      <c r="G7">
         <f t="array" ref="G7">[1]!transient_pd_radial(F7,cd,skin,rd,3)</f>
         <v>3.8178685768034484</v>
       </c>
-      <c r="H7" cm="1">
+      <c r="H7">
         <f t="array" ref="H7">[1]!transient_p_from_pd_atma(G7,q,pinit,k,h,mu,b)</f>
         <v>242.97130395010484</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" cm="1">
+      <c r="M7">
         <f t="array" ref="M7">[1]!transient_td_from_t(L7,rw,k,phi,mu,ct)</f>
         <v>0</v>
       </c>
@@ -1615,15 +1591,15 @@
       <c r="P7">
         <v>1</v>
       </c>
-      <c r="Q7" cm="1">
+      <c r="Q7">
         <f t="array" ref="Q7">[1]!transient_td_from_t(P7,rw,k,phi,mu,ct)</f>
         <v>53999.999999999993</v>
       </c>
-      <c r="R7" cm="1">
+      <c r="R7">
         <f t="array" ref="R7">[1]!transient_pd_superposition(Q7,rd,$N$11,$M$11,1,cd,skin,3)</f>
         <v>38.178685768034484</v>
       </c>
-      <c r="S7" cm="1">
+      <c r="S7">
         <f t="array" ref="S7">[1]!transient_p_from_pd_atma(R7,q,pinit,k,h,mu,b)</f>
         <v>179.71303950104851</v>
       </c>
@@ -1638,22 +1614,22 @@
       <c r="E8">
         <v>2</v>
       </c>
-      <c r="F8" cm="1">
+      <c r="F8">
         <f t="array" ref="F8">[1]!transient_td_from_t(E8,rw,k,phi,mu,ct)</f>
         <v>107999.99999999999</v>
       </c>
-      <c r="G8" cm="1">
+      <c r="G8">
         <f t="array" ref="G8">[1]!transient_pd_radial(F8,cd,skin,rd,3)</f>
         <v>5.1947897131249192</v>
       </c>
-      <c r="H8" cm="1">
+      <c r="H8">
         <f t="array" ref="H8">[1]!transient_p_from_pd_atma(G8,q,pinit,k,h,mu,b)</f>
         <v>240.43639213813702</v>
       </c>
       <c r="L8">
         <v>10</v>
       </c>
-      <c r="M8" cm="1">
+      <c r="M8">
         <f t="array" ref="M8">[1]!transient_td_from_t(L8,rw,k,phi,mu,ct)</f>
         <v>539999.99999999988</v>
       </c>
@@ -1663,15 +1639,15 @@
       <c r="P8">
         <v>2</v>
       </c>
-      <c r="Q8" cm="1">
+      <c r="Q8">
         <f t="array" ref="Q8">[1]!transient_td_from_t(P8,rw,k,phi,mu,ct)</f>
         <v>107999.99999999999</v>
       </c>
-      <c r="R8" cm="1">
+      <c r="R8">
         <f t="array" ref="R8">[1]!transient_pd_superposition(Q8,rd,$N$11,$M$11,1,cd,skin,3)</f>
         <v>51.947897131249192</v>
       </c>
-      <c r="S8" cm="1">
+      <c r="S8">
         <f t="array" ref="S8">[1]!transient_p_from_pd_atma(R8,q,pinit,k,h,mu,b)</f>
         <v>154.36392138137023</v>
       </c>
@@ -1686,30 +1662,30 @@
       <c r="E9">
         <v>3</v>
       </c>
-      <c r="F9" cm="1">
+      <c r="F9">
         <f t="array" ref="F9">[1]!transient_td_from_t(E9,rw,k,phi,mu,ct)</f>
         <v>161999.99999999997</v>
       </c>
-      <c r="G9" cm="1">
+      <c r="G9">
         <f t="array" ref="G9">[1]!transient_pd_radial(F9,cd,skin,rd,3)</f>
         <v>5.8199738568000612</v>
       </c>
-      <c r="H9" cm="1">
+      <c r="H9">
         <f t="array" ref="H9">[1]!transient_p_from_pd_atma(G9,q,pinit,k,h,mu,b)</f>
         <v>239.2854281296311</v>
       </c>
       <c r="P9">
         <v>3</v>
       </c>
-      <c r="Q9" cm="1">
+      <c r="Q9">
         <f t="array" ref="Q9">[1]!transient_td_from_t(P9,rw,k,phi,mu,ct)</f>
         <v>161999.99999999997</v>
       </c>
-      <c r="R9" cm="1">
+      <c r="R9">
         <f t="array" ref="R9">[1]!transient_pd_superposition(Q9,rd,$N$11,$M$11,1,cd,skin,3)</f>
         <v>58.199738568000612</v>
       </c>
-      <c r="S9" cm="1">
+      <c r="S9">
         <f t="array" ref="S9">[1]!transient_p_from_pd_atma(R9,q,pinit,k,h,mu,b)</f>
         <v>142.85428129631089</v>
       </c>
@@ -1724,30 +1700,30 @@
       <c r="E10">
         <v>4</v>
       </c>
-      <c r="F10" cm="1">
+      <c r="F10">
         <f t="array" ref="F10">[1]!transient_td_from_t(E10,rw,k,phi,mu,ct)</f>
         <v>215999.99999999997</v>
       </c>
-      <c r="G10" cm="1">
+      <c r="G10">
         <f t="array" ref="G10">[1]!transient_pd_radial(F10,cd,skin,rd,3)</f>
         <v>6.1603677953316947</v>
       </c>
-      <c r="H10" cm="1">
+      <c r="H10">
         <f t="array" ref="H10">[1]!transient_p_from_pd_atma(G10,q,pinit,k,h,mu,b)</f>
         <v>238.65876288879434</v>
       </c>
       <c r="P10">
         <v>4</v>
       </c>
-      <c r="Q10" cm="1">
+      <c r="Q10">
         <f t="array" ref="Q10">[1]!transient_td_from_t(P10,rw,k,phi,mu,ct)</f>
         <v>215999.99999999997</v>
       </c>
-      <c r="R10" cm="1">
+      <c r="R10">
         <f t="array" ref="R10">[1]!transient_pd_superposition(Q10,rd,$N$11,$M$11,1,cd,skin,3)</f>
         <v>61.603677953316947</v>
       </c>
-      <c r="S10" cm="1">
+      <c r="S10">
         <f t="array" ref="S10">[1]!transient_p_from_pd_atma(R10,q,pinit,k,h,mu,b)</f>
         <v>136.58762888794351</v>
       </c>
@@ -1762,42 +1738,42 @@
       <c r="E11">
         <v>5</v>
       </c>
-      <c r="F11" cm="1">
+      <c r="F11">
         <f t="array" ref="F11">[1]!transient_td_from_t(E11,rw,k,phi,mu,ct)</f>
         <v>269999.99999999994</v>
       </c>
-      <c r="G11" cm="1">
+      <c r="G11">
         <f t="array" ref="G11">[1]!transient_pd_radial(F11,cd,skin,rd,3)</f>
         <v>6.3753009271604242</v>
       </c>
-      <c r="H11" cm="1">
+      <c r="H11">
         <f t="array" ref="H11">[1]!transient_p_from_pd_atma(G11,q,pinit,k,h,mu,b)</f>
         <v>238.26307099309767</v>
       </c>
-      <c r="L11" t="str" cm="1">
+      <c r="L11" t="str">
         <f t="array" ref="L11">[1]!encode_json(L7:L8)</f>
         <v>[0,10]</v>
       </c>
-      <c r="M11" t="str" cm="1">
+      <c r="M11" t="str">
         <f t="array" ref="M11">[1]!encode_json(M7:M8)</f>
         <v>[0,540000]</v>
       </c>
-      <c r="N11" t="str" cm="1">
+      <c r="N11" t="str">
         <f t="array" ref="N11">[1]!encode_json(N7:N8)</f>
         <v>[10,0]</v>
       </c>
       <c r="P11">
         <v>5</v>
       </c>
-      <c r="Q11" cm="1">
+      <c r="Q11">
         <f t="array" ref="Q11">[1]!transient_td_from_t(P11,rw,k,phi,mu,ct)</f>
         <v>269999.99999999994</v>
       </c>
-      <c r="R11" cm="1">
+      <c r="R11">
         <f t="array" ref="R11">[1]!transient_pd_superposition(Q11,rd,$N$11,$M$11,1,cd,skin,3)</f>
         <v>63.753009271604242</v>
       </c>
-      <c r="S11" cm="1">
+      <c r="S11">
         <f t="array" ref="S11">[1]!transient_p_from_pd_atma(R11,q,pinit,k,h,mu,b)</f>
         <v>132.63070993097659</v>
       </c>
@@ -1812,30 +1788,30 @@
       <c r="E12">
         <v>6</v>
       </c>
-      <c r="F12" cm="1">
+      <c r="F12">
         <f t="array" ref="F12">[1]!transient_td_from_t(E12,rw,k,phi,mu,ct)</f>
         <v>323999.99999999994</v>
       </c>
-      <c r="G12" cm="1">
+      <c r="G12">
         <f t="array" ref="G12">[1]!transient_pd_radial(F12,cd,skin,rd,3)</f>
         <v>6.5270613963657524</v>
       </c>
-      <c r="H12" cm="1">
+      <c r="H12">
         <f t="array" ref="H12">[1]!transient_p_from_pd_atma(G12,q,pinit,k,h,mu,b)</f>
         <v>237.98367996929065</v>
       </c>
       <c r="P12">
         <v>6</v>
       </c>
-      <c r="Q12" cm="1">
+      <c r="Q12">
         <f t="array" ref="Q12">[1]!transient_td_from_t(P12,rw,k,phi,mu,ct)</f>
         <v>323999.99999999994</v>
       </c>
-      <c r="R12" cm="1">
+      <c r="R12">
         <f t="array" ref="R12">[1]!transient_pd_superposition(Q12,rd,$N$11,$M$11,1,cd,skin,3)</f>
         <v>65.270613963657524</v>
       </c>
-      <c r="S12" cm="1">
+      <c r="S12">
         <f t="array" ref="S12">[1]!transient_p_from_pd_atma(R12,q,pinit,k,h,mu,b)</f>
         <v>129.83679969290648</v>
       </c>
@@ -1850,30 +1826,30 @@
       <c r="E13">
         <v>7</v>
       </c>
-      <c r="F13" cm="1">
+      <c r="F13">
         <f t="array" ref="F13">[1]!transient_td_from_t(E13,rw,k,phi,mu,ct)</f>
         <v>377999.99999999994</v>
       </c>
-      <c r="G13" cm="1">
+      <c r="G13">
         <f t="array" ref="G13">[1]!transient_pd_radial(F13,cd,skin,rd,3)</f>
         <v>6.6430706294922857</v>
       </c>
-      <c r="H13" cm="1">
+      <c r="H13">
         <f t="array" ref="H13">[1]!transient_p_from_pd_atma(G13,q,pinit,k,h,mu,b)</f>
         <v>237.7701069711047</v>
       </c>
       <c r="P13">
         <v>7</v>
       </c>
-      <c r="Q13" cm="1">
+      <c r="Q13">
         <f t="array" ref="Q13">[1]!transient_td_from_t(P13,rw,k,phi,mu,ct)</f>
         <v>377999.99999999994</v>
       </c>
-      <c r="R13" cm="1">
+      <c r="R13">
         <f t="array" ref="R13">[1]!transient_pd_superposition(Q13,rd,$N$11,$M$11,1,cd,skin,3)</f>
         <v>66.430706294922857</v>
       </c>
-      <c r="S13" cm="1">
+      <c r="S13">
         <f t="array" ref="S13">[1]!transient_p_from_pd_atma(R13,q,pinit,k,h,mu,b)</f>
         <v>127.70106971104703</v>
       </c>
@@ -1888,30 +1864,30 @@
       <c r="E14">
         <v>8</v>
       </c>
-      <c r="F14" cm="1">
+      <c r="F14">
         <f t="array" ref="F14">[1]!transient_td_from_t(E14,rw,k,phi,mu,ct)</f>
         <v>431999.99999999994</v>
       </c>
-      <c r="G14" cm="1">
+      <c r="G14">
         <f t="array" ref="G14">[1]!transient_pd_radial(F14,cd,skin,rd,3)</f>
         <v>6.7367632504174253</v>
       </c>
-      <c r="H14" cm="1">
+      <c r="H14">
         <f t="array" ref="H14">[1]!transient_p_from_pd_atma(G14,q,pinit,k,h,mu,b)</f>
         <v>237.59761885598152</v>
       </c>
       <c r="P14">
         <v>8</v>
       </c>
-      <c r="Q14" cm="1">
+      <c r="Q14">
         <f t="array" ref="Q14">[1]!transient_td_from_t(P14,rw,k,phi,mu,ct)</f>
         <v>431999.99999999994</v>
       </c>
-      <c r="R14" cm="1">
+      <c r="R14">
         <f t="array" ref="R14">[1]!transient_pd_superposition(Q14,rd,$N$11,$M$11,1,cd,skin,3)</f>
         <v>67.367632504174253</v>
       </c>
-      <c r="S14" cm="1">
+      <c r="S14">
         <f t="array" ref="S14">[1]!transient_p_from_pd_atma(R14,q,pinit,k,h,mu,b)</f>
         <v>125.9761885598152</v>
       </c>
@@ -1926,30 +1902,30 @@
       <c r="E15">
         <v>9</v>
       </c>
-      <c r="F15" cm="1">
+      <c r="F15">
         <f t="array" ref="F15">[1]!transient_td_from_t(E15,rw,k,phi,mu,ct)</f>
         <v>485999.99999999994</v>
       </c>
-      <c r="G15" cm="1">
+      <c r="G15">
         <f t="array" ref="G15">[1]!transient_pd_radial(F15,cd,skin,rd,3)</f>
         <v>6.8153810564399464</v>
       </c>
-      <c r="H15" cm="1">
+      <c r="H15">
         <f t="array" ref="H15">[1]!transient_p_from_pd_atma(G15,q,pinit,k,h,mu,b)</f>
         <v>237.45288347509407</v>
       </c>
       <c r="P15">
         <v>9</v>
       </c>
-      <c r="Q15" cm="1">
+      <c r="Q15">
         <f t="array" ref="Q15">[1]!transient_td_from_t(P15,rw,k,phi,mu,ct)</f>
         <v>485999.99999999994</v>
       </c>
-      <c r="R15" cm="1">
+      <c r="R15">
         <f t="array" ref="R15">[1]!transient_pd_superposition(Q15,rd,$N$11,$M$11,1,cd,skin,3)</f>
         <v>68.153810564399464</v>
       </c>
-      <c r="S15" cm="1">
+      <c r="S15">
         <f t="array" ref="S15">[1]!transient_p_from_pd_atma(R15,q,pinit,k,h,mu,b)</f>
         <v>124.52883475094059</v>
       </c>
@@ -1964,30 +1940,30 @@
       <c r="E16">
         <v>10</v>
       </c>
-      <c r="F16" cm="1">
+      <c r="F16">
         <f t="array" ref="F16">[1]!transient_td_from_t(E16,rw,k,phi,mu,ct)</f>
         <v>539999.99999999988</v>
       </c>
-      <c r="G16" cm="1">
+      <c r="G16">
         <f t="array" ref="G16">[1]!transient_pd_radial(F16,cd,skin,rd,3)</f>
         <v>6.8831674586836016</v>
       </c>
-      <c r="H16" cm="1">
+      <c r="H16">
         <f t="array" ref="H16">[1]!transient_p_from_pd_atma(G16,q,pinit,k,h,mu,b)</f>
         <v>237.32808870856348</v>
       </c>
       <c r="P16">
         <v>10</v>
       </c>
-      <c r="Q16" cm="1">
+      <c r="Q16">
         <f t="array" ref="Q16">[1]!transient_td_from_t(P16,rw,k,phi,mu,ct)</f>
         <v>539999.99999999988</v>
       </c>
-      <c r="R16" cm="1">
+      <c r="R16">
         <f t="array" ref="R16">[1]!transient_pd_superposition(Q16,rd,$N$11,$M$11,1,cd,skin,3)</f>
         <v>68.831674586836016</v>
       </c>
-      <c r="S16" cm="1">
+      <c r="S16">
         <f t="array" ref="S16">[1]!transient_p_from_pd_atma(R16,q,pinit,k,h,mu,b)</f>
         <v>123.2808870856349</v>
       </c>
@@ -2002,30 +1978,30 @@
       <c r="E17">
         <v>11</v>
       </c>
-      <c r="F17" cm="1">
+      <c r="F17">
         <f t="array" ref="F17">[1]!transient_td_from_t(E17,rw,k,phi,mu,ct)</f>
         <v>593999.99999999988</v>
       </c>
-      <c r="G17" cm="1">
+      <c r="G17">
         <f t="array" ref="G17">[1]!transient_pd_radial(F17,cd,skin,rd,3)</f>
         <v>6.9427920975285815</v>
       </c>
-      <c r="H17" cm="1">
+      <c r="H17">
         <f t="array" ref="H17">[1]!transient_p_from_pd_atma(G17,q,pinit,k,h,mu,b)</f>
         <v>237.21831974844989</v>
       </c>
       <c r="P17">
         <v>11</v>
       </c>
-      <c r="Q17" cm="1">
+      <c r="Q17">
         <f t="array" ref="Q17">[1]!transient_td_from_t(P17,rw,k,phi,mu,ct)</f>
         <v>593999.99999999988</v>
       </c>
-      <c r="R17" cm="1">
+      <c r="R17">
         <f t="array" ref="R17">[1]!transient_pd_superposition(Q17,rd,$N$11,$M$11,1,cd,skin,3)</f>
         <v>31.249235208488244</v>
       </c>
-      <c r="S17" cm="1">
+      <c r="S17">
         <f t="array" ref="S17">[1]!transient_p_from_pd_atma(R17,q,pinit,k,h,mu,b)</f>
         <v>192.47015798117314</v>
       </c>
@@ -2034,37 +2010,37 @@
       <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="2" cm="1">
+      <c r="C18" s="2">
         <f t="array" ref="C18">[1]!transient_cd_from_cs(cs,rw,h,phi,ct)</f>
         <v>7949.9999999999991</v>
       </c>
       <c r="E18">
         <v>12</v>
       </c>
-      <c r="F18" cm="1">
+      <c r="F18">
         <f t="array" ref="F18">[1]!transient_td_from_t(E18,rw,k,phi,mu,ct)</f>
         <v>647999.99999999988</v>
       </c>
-      <c r="G18" cm="1">
+      <c r="G18">
         <f t="array" ref="G18">[1]!transient_pd_radial(F18,cd,skin,rd,3)</f>
         <v>6.9960368953179568</v>
       </c>
-      <c r="H18" cm="1">
+      <c r="H18">
         <f t="array" ref="H18">[1]!transient_p_from_pd_atma(G18,q,pinit,k,h,mu,b)</f>
         <v>237.12029607571964</v>
       </c>
       <c r="P18">
         <v>12</v>
       </c>
-      <c r="Q18" cm="1">
+      <c r="Q18">
         <f t="array" ref="Q18">[1]!transient_td_from_t(P18,rw,k,phi,mu,ct)</f>
         <v>647999.99999999988</v>
       </c>
-      <c r="R18" cm="1">
+      <c r="R18">
         <f t="array" ref="R18">[1]!transient_pd_superposition(Q18,rd,$N$11,$M$11,1,cd,skin,3)</f>
         <v>18.012471821348299</v>
       </c>
-      <c r="S18" cm="1">
+      <c r="S18">
         <f t="array" ref="S18">[1]!transient_p_from_pd_atma(R18,q,pinit,k,h,mu,b)</f>
         <v>216.83903937689777</v>
       </c>
@@ -2079,30 +2055,30 @@
       <c r="E19">
         <v>13</v>
       </c>
-      <c r="F19" cm="1">
+      <c r="F19">
         <f t="array" ref="F19">[1]!transient_td_from_t(E19,rw,k,phi,mu,ct)</f>
         <v>701999.99999999988</v>
       </c>
-      <c r="G19" cm="1">
+      <c r="G19">
         <f t="array" ref="G19">[1]!transient_pd_radial(F19,cd,skin,rd,3)</f>
         <v>7.04415034824342</v>
       </c>
-      <c r="H19" cm="1">
+      <c r="H19">
         <f t="array" ref="H19">[1]!transient_p_from_pd_atma(G19,q,pinit,k,h,mu,b)</f>
         <v>237.03171920888386</v>
       </c>
       <c r="P19">
         <v>13</v>
       </c>
-      <c r="Q19" cm="1">
+      <c r="Q19">
         <f t="array" ref="Q19">[1]!transient_td_from_t(P19,rw,k,phi,mu,ct)</f>
         <v>701999.99999999988</v>
       </c>
-      <c r="R19" cm="1">
+      <c r="R19">
         <f t="array" ref="R19">[1]!transient_pd_superposition(Q19,rd,$N$11,$M$11,1,cd,skin,3)</f>
         <v>12.24176491239632</v>
       </c>
-      <c r="S19" cm="1">
+      <c r="S19">
         <f t="array" ref="S19">[1]!transient_p_from_pd_atma(R19,q,pinit,k,h,mu,b)</f>
         <v>227.46291079627838</v>
       </c>
@@ -2111,30 +2087,30 @@
       <c r="E20">
         <v>14</v>
       </c>
-      <c r="F20" cm="1">
+      <c r="F20">
         <f t="array" ref="F20">[1]!transient_td_from_t(E20,rw,k,phi,mu,ct)</f>
         <v>755999.99999999988</v>
       </c>
-      <c r="G20" cm="1">
+      <c r="G20">
         <f t="array" ref="G20">[1]!transient_pd_radial(F20,cd,skin,rd,3)</f>
         <v>7.08804239424353</v>
       </c>
-      <c r="H20" cm="1">
+      <c r="H20">
         <f t="array" ref="H20">[1]!transient_p_from_pd_atma(G20,q,pinit,k,h,mu,b)</f>
         <v>236.95091395219765</v>
       </c>
       <c r="P20">
         <v>14</v>
       </c>
-      <c r="Q20" cm="1">
+      <c r="Q20">
         <f t="array" ref="Q20">[1]!transient_td_from_t(P20,rw,k,phi,mu,ct)</f>
         <v>755999.99999999988</v>
       </c>
-      <c r="R20" cm="1">
+      <c r="R20">
         <f t="array" ref="R20">[1]!transient_pd_superposition(Q20,rd,$N$11,$M$11,1,cd,skin,3)</f>
         <v>9.2767459902825067</v>
       </c>
-      <c r="S20" cm="1">
+      <c r="S20">
         <f t="array" ref="S20">[1]!transient_p_from_pd_atma(R20,q,pinit,k,h,mu,b)</f>
         <v>232.9215106318899</v>
       </c>
@@ -2143,30 +2119,30 @@
       <c r="E21">
         <v>15</v>
       </c>
-      <c r="F21" cm="1">
+      <c r="F21">
         <f t="array" ref="F21">[1]!transient_td_from_t(E21,rw,k,phi,mu,ct)</f>
         <v>809999.99999999988</v>
       </c>
-      <c r="G21" cm="1">
+      <c r="G21">
         <f t="array" ref="G21">[1]!transient_pd_radial(F21,cd,skin,rd,3)</f>
         <v>7.1283978695282713</v>
       </c>
-      <c r="H21" cm="1">
+      <c r="H21">
         <f t="array" ref="H21">[1]!transient_p_from_pd_atma(G21,q,pinit,k,h,mu,b)</f>
         <v>236.87661952219844</v>
       </c>
       <c r="P21">
         <v>15</v>
       </c>
-      <c r="Q21" cm="1">
+      <c r="Q21">
         <f t="array" ref="Q21">[1]!transient_td_from_t(P21,rw,k,phi,mu,ct)</f>
         <v>809999.99999999988</v>
       </c>
-      <c r="R21" cm="1">
+      <c r="R21">
         <f t="array" ref="R21">[1]!transient_pd_superposition(Q21,rd,$N$11,$M$11,1,cd,skin,3)</f>
         <v>7.5309694236784708</v>
       </c>
-      <c r="S21" cm="1">
+      <c r="S21">
         <f t="array" ref="S21">[1]!transient_p_from_pd_atma(R21,q,pinit,k,h,mu,b)</f>
         <v>236.13548529100794</v>
       </c>
@@ -2175,30 +2151,30 @@
       <c r="E22">
         <v>16</v>
       </c>
-      <c r="F22" cm="1">
+      <c r="F22">
         <f t="array" ref="F22">[1]!transient_td_from_t(E22,rw,k,phi,mu,ct)</f>
         <v>863999.99999999988</v>
       </c>
-      <c r="G22" cm="1">
+      <c r="G22">
         <f t="array" ref="G22">[1]!transient_pd_radial(F22,cd,skin,rd,3)</f>
         <v>7.1657459127018228</v>
       </c>
-      <c r="H22" cm="1">
+      <c r="H22">
         <f t="array" ref="H22">[1]!transient_p_from_pd_atma(G22,q,pinit,k,h,mu,b)</f>
         <v>236.80786177471595</v>
       </c>
       <c r="P22">
         <v>16</v>
       </c>
-      <c r="Q22" cm="1">
+      <c r="Q22">
         <f t="array" ref="Q22">[1]!transient_td_from_t(P22,rw,k,phi,mu,ct)</f>
         <v>863999.99999999988</v>
       </c>
-      <c r="R22" cm="1">
+      <c r="R22">
         <f t="array" ref="R22">[1]!transient_pd_superposition(Q22,rd,$N$11,$M$11,1,cd,skin,3)</f>
         <v>6.3868451635062229</v>
       </c>
-      <c r="S22" cm="1">
+      <c r="S22">
         <f t="array" ref="S22">[1]!transient_p_from_pd_atma(R22,q,pinit,k,h,mu,b)</f>
         <v>238.24181805398504</v>
       </c>
@@ -2207,17 +2183,17 @@
       <c r="P23">
         <v>17</v>
       </c>
-      <c r="Q23" cm="1">
+      <c r="Q23">
         <f t="array" ref="Q23">[1]!transient_td_from_t(P23,rw,k,phi,mu,ct)</f>
         <v>917999.99999999988</v>
       </c>
-      <c r="R23" cm="1">
+      <c r="R23">
         <f t="array" ref="R23">[1]!transient_pd_superposition(Q23,rd,$N$11,$M$11,1,cd,skin,3)</f>
-        <v>5.574337199650472</v>
-      </c>
-      <c r="S23" cm="1">
+        <v>5.5743371995049529</v>
+      </c>
+      <c r="S23">
         <f t="array" ref="S23">[1]!transient_p_from_pd_atma(R23,q,pinit,k,h,mu,b)</f>
-        <v>239.73764521544348</v>
+        <v>239.73764521571138</v>
       </c>
     </row>
   </sheetData>
